--- a/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -109,31 +109,65 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Cfg.TBPlayerLevelUp</t>
+    <t>Cfg.PlayerLevelUp</t>
   </si>
   <si>
     <t>PlayerLevelUpConfig</t>
   </si>
   <si>
-    <t>玩家等级配置表@玩家配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Cfg.TbItem</t>
+    <t>玩家等级表@玩家配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.ItemBaseProperty</t>
+  </si>
+  <si>
+    <t>ItemBasePropertyConfig</t>
+  </si>
+  <si>
+    <t>物品基础属性表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.Item</t>
   </si>
   <si>
     <t>ItemConfig</t>
   </si>
   <si>
-    <t>物品配置表.xlsx</t>
-  </si>
-  <si>
-    <t>Cfg.TbTask</t>
+    <t>物品表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.ItemType</t>
+  </si>
+  <si>
+    <t>ItemTypeConfig</t>
+  </si>
+  <si>
+    <t>物品类型表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.ItemQuality</t>
+  </si>
+  <si>
+    <t>ItemQualityConfig</t>
+  </si>
+  <si>
+    <t>物品质量表@物品配置表.xlsx</t>
+  </si>
+  <si>
+    <t>Cfg.Task</t>
   </si>
   <si>
     <t>TaskConfig</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>任务表</t>
     </r>
     <r>
@@ -149,13 +183,20 @@
     </r>
   </si>
   <si>
-    <t>Cfg.TbTreasureChest</t>
+    <t>Cfg.TreasureChest</t>
   </si>
   <si>
     <t>TreasureChestConfig</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="等线"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>宝箱配置表</t>
     </r>
     <r>
@@ -1120,13 +1161,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
@@ -1276,7 +1317,7 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1290,8 +1331,50 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
